--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MateiColdea\Documents\UiPath\fwf-mobile-de-poc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD4A40F-27ED-453E-B466-B757389B85FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816CC6FF-D1A7-433F-9C6F-7EDAC24AEBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-13170" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-17740" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -88,20 +88,12 @@
   </si>
   <si>
     <t>Framework</t>
-  </si>
-  <si>
-    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
@@ -120,12 +112,6 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
     <t>MaxConsecutiveSystemExceptions</t>
   </si>
   <si>
@@ -159,9 +145,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
     <t>Specific_Sender</t>
   </si>
   <si>
@@ -175,6 +158,177 @@
   </si>
   <si>
     <t>BRE2_Message</t>
+  </si>
+  <si>
+    <t>Range_Fields</t>
+  </si>
+  <si>
+    <t>Price;Power;First registration (date);Kilometre;Cubic capacity</t>
+  </si>
+  <si>
+    <t>Options_Fields</t>
+  </si>
+  <si>
+    <t>Car Type;Transmission</t>
+  </si>
+  <si>
+    <t>DropDown_Fields</t>
+  </si>
+  <si>
+    <t>Emissions Sticker</t>
+  </si>
+  <si>
+    <t>minFirstRegistrationDateContainer</t>
+  </si>
+  <si>
+    <t>minMileageContainer</t>
+  </si>
+  <si>
+    <t>Kilometre_from</t>
+  </si>
+  <si>
+    <t>Kilometre_to</t>
+  </si>
+  <si>
+    <t>maxMileageContainer</t>
+  </si>
+  <si>
+    <t>First Registration_from</t>
+  </si>
+  <si>
+    <t>maxFirstRegistrationDateContainer</t>
+  </si>
+  <si>
+    <t>First Registration_to</t>
+  </si>
+  <si>
+    <t>Power_from</t>
+  </si>
+  <si>
+    <t>minPowerAsArrayContainer</t>
+  </si>
+  <si>
+    <t>maxPowerAsArrayContainer</t>
+  </si>
+  <si>
+    <t>Power_to</t>
+  </si>
+  <si>
+    <t>minCubicCapacityContainer</t>
+  </si>
+  <si>
+    <t>maxCubicCapacityContainer</t>
+  </si>
+  <si>
+    <t>Cubic capacity_from</t>
+  </si>
+  <si>
+    <t>Cubic capacity_to</t>
+  </si>
+  <si>
+    <t>payment-filters</t>
+  </si>
+  <si>
+    <t>Price_from</t>
+  </si>
+  <si>
+    <t>Price_to</t>
+  </si>
+  <si>
+    <t>Mobilede_MoreFiltersUrl</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/search.html?dam=0&amp;sb=rel&amp;vc=Car</t>
+  </si>
+  <si>
+    <t>Make_Field</t>
+  </si>
+  <si>
+    <t>Model_Field</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>BRE3_Message</t>
+  </si>
+  <si>
+    <t>File_path</t>
+  </si>
+  <si>
+    <t>Data\Temp\output.xlsx</t>
+  </si>
+  <si>
+    <t>File_sheetName</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>https://www.mobile.de/</t>
+  </si>
+  <si>
+    <t>Mobilede_MainPage</t>
+  </si>
+  <si>
+    <t>Mobilede_Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Email_To</t>
+  </si>
+  <si>
+    <t>Email_Subject</t>
+  </si>
+  <si>
+    <t>Email_Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>This is the output email fro the Mobilede POC</t>
+  </si>
+  <si>
+    <t>BRE_Email_To</t>
+  </si>
+  <si>
+    <t>BRE_Email_Subject</t>
+  </si>
+  <si>
+    <t>BRE_Email_Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRE Email </t>
+  </si>
+  <si>
+    <t>SE_ Email_To</t>
+  </si>
+  <si>
+    <t>SE_Email_Subject</t>
+  </si>
+  <si>
+    <t>SE_Email_Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE Email </t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/search.html?dam=0&amp;isSearchRequest=true&amp;ref=dsp&amp;s=Car&amp;sb=rel&amp;vc=Car</t>
+  </si>
+  <si>
+    <t>Mobilede_ExtractData</t>
+  </si>
+  <si>
+    <t>Process_toKill</t>
+  </si>
+  <si>
+    <t>msedge</t>
   </si>
 </sst>
 </file>
@@ -229,13 +383,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -598,118 +752,324 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="29">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -1644,6 +2004,8 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1708,19 +2070,19 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1744,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1766,7 +2128,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1777,7 +2139,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1788,53 +2150,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2836,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
